--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.520102666666667</v>
+      </c>
+      <c r="H2">
+        <v>13.560308</v>
+      </c>
+      <c r="I2">
+        <v>0.9927775608668273</v>
+      </c>
+      <c r="J2">
+        <v>0.9927775608668273</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.5604413333333333</v>
-      </c>
-      <c r="H2">
-        <v>1.681324</v>
-      </c>
-      <c r="I2">
-        <v>0.9445773114790939</v>
-      </c>
-      <c r="J2">
-        <v>0.9445773114790937</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N2">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q2">
-        <v>0.07447368613866667</v>
+        <v>0.3787032416186666</v>
       </c>
       <c r="R2">
-        <v>0.6702631752480001</v>
+        <v>3.408329174568</v>
       </c>
       <c r="S2">
-        <v>0.01129308272072404</v>
+        <v>0.007516710766722732</v>
       </c>
       <c r="T2">
-        <v>0.01129308272072404</v>
+        <v>0.007516710766722732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H3">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I3">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J3">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
         <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q3">
-        <v>0.04120906442622222</v>
+        <v>0.3323616423791112</v>
       </c>
       <c r="R3">
-        <v>0.370881579836</v>
+        <v>2.991254781412001</v>
       </c>
       <c r="S3">
-        <v>0.006248883297416785</v>
+        <v>0.006596897151021307</v>
       </c>
       <c r="T3">
-        <v>0.006248883297416783</v>
+        <v>0.006596897151021306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5604413333333333</v>
+        <v>4.520102666666667</v>
       </c>
       <c r="H4">
-        <v>1.681324</v>
+        <v>13.560308</v>
       </c>
       <c r="I4">
-        <v>0.9445773114790939</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="J4">
-        <v>0.9445773114790937</v>
+        <v>0.9927775608668273</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q4">
-        <v>6.113453789779999</v>
+        <v>49.30656811726001</v>
       </c>
       <c r="R4">
-        <v>55.02108410802</v>
+        <v>443.75911305534</v>
       </c>
       <c r="S4">
-        <v>0.927035345460953</v>
+        <v>0.9786639529490834</v>
       </c>
       <c r="T4">
-        <v>0.9270353454609529</v>
+        <v>0.9786639529490833</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.098651</v>
       </c>
       <c r="I5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J5">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N5">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q5">
-        <v>0.004369713161333333</v>
+        <v>0.002755059360666666</v>
       </c>
       <c r="R5">
-        <v>0.039327418452</v>
+        <v>0.024795534246</v>
       </c>
       <c r="S5">
-        <v>0.0006626170229427212</v>
+        <v>5.468393740377904E-05</v>
       </c>
       <c r="T5">
-        <v>0.0006626170229427212</v>
+        <v>5.468393740377904E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.098651</v>
       </c>
       <c r="I6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J6">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N6">
         <v>0.220589</v>
       </c>
       <c r="O6">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P6">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q6">
-        <v>0.002417925048777777</v>
+        <v>0.002417925048777778</v>
       </c>
       <c r="R6">
         <v>0.021761325439</v>
       </c>
       <c r="S6">
-        <v>0.0003666506789729185</v>
+        <v>4.799230967655033E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003666506789729185</v>
+        <v>4.799230967655032E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.098651</v>
       </c>
       <c r="I7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="J7">
-        <v>0.05542268852090619</v>
+        <v>0.007222439133172593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>32.724855</v>
       </c>
       <c r="O7">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P7">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q7">
         <v>0.358704407845</v>
@@ -880,10 +880,10 @@
         <v>3.228339670605</v>
       </c>
       <c r="S7">
-        <v>0.05439342081899055</v>
+        <v>0.007119762886092263</v>
       </c>
       <c r="T7">
-        <v>0.05439342081899055</v>
+        <v>0.007119762886092263</v>
       </c>
     </row>
   </sheetData>
